--- a/src/excel/AntigenSupportingData- Mumps-508.xlsx
+++ b/src/excel/AntigenSupportingData- Mumps-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7DA01-F1AB-4A6F-A241-62F98ECEF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC10DA34-470B-4C8F-A378-2CCC651D9DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="394">
   <si>
     <t>Resources</t>
   </si>
@@ -253,19 +253,10 @@
     <t>Overview</t>
   </si>
   <si>
-    <t>≥12 mo</t>
-  </si>
-  <si>
-    <t>≥12 mo-4 d</t>
-  </si>
-  <si>
     <t>MUMPSVAX (MSD)</t>
   </si>
   <si>
     <t>BIAVAX II (MSD)</t>
-  </si>
-  <si>
-    <t>≥12 mo to &lt;13 yrs</t>
   </si>
   <si>
     <t>PROQUAD (MSD)</t>
@@ -1198,6 +1189,84 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Vaccine Contraindication</t>
+  </si>
+  <si>
+    <t>MMRV (CVX 94) contraindication for persons with an HIV infection (coded observation 186)</t>
+  </si>
+  <si>
+    <t>HIV infection of any severity is listed as a contraindication for MMRV in the 2025 yearly schedule.</t>
+  </si>
+  <si>
+    <t>HIV Infection (186)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate with MMRV if the patient has an HIV infection of any severity.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Rubella (093)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Rubella vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Measles (091)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Measles vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Varicella (089)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Varicella vaccine.</t>
+  </si>
+  <si>
+    <t>Added code 91 and 93</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Antigen Contraindications</t>
+  </si>
+  <si>
+    <t>Added new antigen contraindication for severe allergic reaction after previous dose of measles (091) and rubella (093). This existing codes are used in measles and rubella, but apply here too as all mumps-containing vaccines also contain measles and rubella.</t>
+  </si>
+  <si>
+    <t>Added new vaccine contraindications to support combination vaccines which have cross antigen contraindications impacting the combination vaccine. For example, a Varicella-specific contraindication also contraindicates the use of MMRV across all antigens, not just Varicella. Previously, the Varicella-specific contraindications was only present in Varicella supporting data.</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has HIV/AIDS but are not severely immunocompromised (See the CDC general recommendations for a definition of "severely immunocompromised").</t>
+  </si>
+  <si>
+    <t>Added code 089, 155</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>≥12 mos</t>
+  </si>
+  <si>
+    <t>≥12 mos to &lt;13 yrs</t>
+  </si>
+  <si>
+    <t>≥12 mos - 4 days</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2250,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2741,6 +2810,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="19" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="16" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3094,7 +3169,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="103" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="103"/>
       <c r="D1" s="103"/>
@@ -3120,7 +3195,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C3" s="107"/>
       <c r="D3" s="107"/>
@@ -3146,7 +3221,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="107"/>
@@ -3170,7 +3245,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
@@ -3196,7 +3271,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C9" s="107"/>
       <c r="D9" s="107"/>
@@ -3222,7 +3297,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C11" s="107"/>
       <c r="D11" s="107"/>
@@ -3248,7 +3323,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" s="107"/>
       <c r="D13" s="107"/>
@@ -3262,7 +3337,7 @@
         <v>69</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C14" s="107"/>
       <c r="D14" s="107"/>
@@ -3276,7 +3351,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
@@ -3300,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C18" s="168"/>
       <c r="D18" s="168"/>
@@ -3315,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="168"/>
       <c r="D19" s="168"/>
@@ -3330,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C20" s="168"/>
       <c r="D20" s="168"/>
@@ -3345,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C21" s="168"/>
       <c r="D21" s="168"/>
@@ -3360,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C22" s="168"/>
       <c r="D22" s="168"/>
@@ -3425,10 +3500,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>10</v>
@@ -3450,13 +3525,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F27" s="24">
         <v>0.5</v>
@@ -3475,13 +3550,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="11">
         <v>0.5</v>
@@ -3500,13 +3575,13 @@
         <v>15</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="F29" s="11">
         <v>0.5</v>
@@ -3525,13 +3600,13 @@
         <v>16</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" s="11">
         <v>0.5</v>
@@ -3564,7 +3639,7 @@
     </row>
     <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>17</v>
@@ -3579,10 +3654,10 @@
     </row>
     <row r="35" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C35" s="95"/>
       <c r="D35" s="95"/>
@@ -3604,10 +3679,10 @@
     </row>
     <row r="37" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" s="94" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C37" s="95"/>
       <c r="D37" s="95"/>
@@ -3619,10 +3694,10 @@
     </row>
     <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="95"/>
@@ -3639,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3653,1148 +3728,1324 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="186">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="188" t="s">
-        <v>370</v>
+        <v>4.62</v>
+      </c>
+      <c r="C1" s="192" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="E2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="180" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="62">
         <v>1</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="D3" s="66" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="180" t="s">
-        <v>77</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="170" t="s">
+        <v>74</v>
       </c>
       <c r="B4" s="62">
         <v>2</v>
       </c>
       <c r="C4" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="186">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C6" s="192" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="62">
+        <v>1</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="186">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" s="188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="62">
+        <v>1</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="186">
+        <v>4.59</v>
+      </c>
+      <c r="C14" s="188" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="62">
+        <v>1</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="62">
+        <v>2</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="174" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="174" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="174" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="62">
+        <v>3</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="E4" s="174" t="s">
+      <c r="D18" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="174" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F18" s="68" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="170" t="s">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="186">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C20" s="188" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="62">
+      <c r="E21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="62">
+        <v>1</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="186">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="62">
+        <v>1</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="62">
+        <v>2</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="62">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="D5" s="174" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="174" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="C28" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="186">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="C30" s="188" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="187" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="186">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="C7" s="188" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="D31" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="E31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="31" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="62">
+        <v>1</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="73">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="62">
+        <v>1</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E36" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="73">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
+      <c r="E39" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="62">
+        <v>1</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="73">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="62">
-        <v>1</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="186">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="C11" s="188" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="E43" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="62">
-        <v>1</v>
-      </c>
-      <c r="C13" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>329</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="62">
-        <v>2</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="62">
-        <v>3</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" s="68" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="186">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="C17" s="188" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="187" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="62">
-        <v>1</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="73">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="62">
-        <v>1</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="73">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="62">
-        <v>1</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="E27" s="68" t="s">
-        <v>324</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="73">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="62">
-        <v>1</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="62">
-        <v>1</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="62">
-        <v>2</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="62">
-        <v>3</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>306</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>307</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="62">
-        <v>4</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="170" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="62">
-        <v>5</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="F39" s="68" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="73">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="62">
-        <v>1</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="171" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="171" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="170" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B44" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="171" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="171" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>315</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46" s="73">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="E47" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="170" t="s">
-        <v>77</v>
+    </row>
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="180" t="s">
+        <v>74</v>
       </c>
       <c r="B48" s="62">
         <v>1</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="171" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="171" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>288</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="62">
+        <v>2</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="62">
+        <v>3</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="62">
+        <v>4</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="F51" s="68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="62">
+        <v>5</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="73">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="73">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="D55" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="E55" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="180" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="62">
-        <v>1</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" s="171" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="171" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="68" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="73">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="170" t="s">
-        <v>77</v>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="180" t="s">
+        <v>74</v>
       </c>
       <c r="B56" s="62">
         <v>1</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D56" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="171" t="s">
+        <v>279</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="62">
+        <v>2</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="171" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="73">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="62">
+        <v>1</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="171" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="73">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="180" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="62">
+        <v>1</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="171" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="171" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="73">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="62">
+        <v>1</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D69" s="171" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="63">
+        <v>1</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="52"/>
+      <c r="B74" s="62">
+        <v>2</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="62">
+        <v>3</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="62">
+        <v>4</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A77" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="155">
+        <v>5</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G77" s="157"/>
+      <c r="H77" s="157"/>
+      <c r="I77" s="157"/>
+      <c r="J77" s="157"/>
+      <c r="K77" s="157"/>
+      <c r="L77" s="157"/>
+      <c r="M77" s="157"/>
+      <c r="N77" s="157"/>
+      <c r="O77" s="157"/>
+      <c r="P77" s="157"/>
+      <c r="Q77" s="157"/>
+      <c r="R77" s="157"/>
+    </row>
+    <row r="78" spans="1:18" ht="45" x14ac:dyDescent="0.3">
+      <c r="A78" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="111">
+        <v>6</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="165" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="165" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="157"/>
+      <c r="H78" s="157"/>
+      <c r="I78" s="157"/>
+      <c r="J78" s="157"/>
+      <c r="K78" s="157"/>
+      <c r="L78" s="157"/>
+      <c r="M78" s="157"/>
+      <c r="N78" s="157"/>
+      <c r="O78" s="157"/>
+      <c r="P78" s="157"/>
+      <c r="Q78" s="157"/>
+      <c r="R78" s="157"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="153">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="150" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="149" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="147">
+        <v>1</v>
+      </c>
+      <c r="C82" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="68">
+        <v>2</v>
+      </c>
+      <c r="C83" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="63">
+        <v>1</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="67"/>
+      <c r="B88" s="62">
+        <v>2</v>
+      </c>
+      <c r="C88" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="32">
+        <v>1</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F92" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="32">
+        <v>2</v>
+      </c>
+      <c r="C93" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="171" t="s">
-        <v>261</v>
-      </c>
-      <c r="F56" s="68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="31" t="s">
+      <c r="D93" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="63">
-        <v>1</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
-      <c r="B61" s="62">
-        <v>2</v>
-      </c>
-      <c r="C61" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="62">
-        <v>3</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="F62" s="68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="62">
-        <v>4</v>
-      </c>
-      <c r="C63" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="E63" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="F63" s="68" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A64" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="155">
-        <v>5</v>
-      </c>
-      <c r="C64" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="F64" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
-      <c r="P64" s="157"/>
-      <c r="Q64" s="157"/>
-      <c r="R64" s="157"/>
-    </row>
-    <row r="65" spans="1:18" ht="45" x14ac:dyDescent="0.3">
-      <c r="A65" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="111">
-        <v>6</v>
-      </c>
-      <c r="C65" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="165" t="s">
-        <v>247</v>
-      </c>
-      <c r="F65" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
-      <c r="P65" s="157"/>
-      <c r="Q65" s="157"/>
-      <c r="R65" s="157"/>
-    </row>
-    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="153">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="152" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="150" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="149" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="147">
-        <v>1</v>
-      </c>
-      <c r="C69" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="147" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="F69" s="68" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="68">
-        <v>2</v>
-      </c>
-      <c r="C70" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="147" t="s">
-        <v>229</v>
-      </c>
-      <c r="E70" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="F70" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="63">
-        <v>1</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="62">
-        <v>2</v>
-      </c>
-      <c r="C75" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="32">
-        <v>1</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="26" t="s">
+      <c r="E93" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="32">
-        <v>2</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4816,33 +5067,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="172" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="173" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="173" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="E1" s="173" t="s">
         <v>264</v>
-      </c>
-      <c r="C1" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="173" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="173" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="166" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B2" s="174" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C2" s="175" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D2" s="176" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E2" s="177" t="s">
         <v>13</v>
@@ -4850,16 +5101,16 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="166" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="179" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D3" s="171" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E3" s="177" t="s">
         <v>13</v>
@@ -4867,36 +5118,36 @@
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="166" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D4" s="171" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="178" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D5" s="177" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4915,18 +5166,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="167" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4938,30 +5189,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="167" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="99" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4972,7 +5223,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -4987,33 +5238,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="92" t="s">
         <v>13</v>
@@ -5027,13 +5278,13 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B3" s="164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D3" s="92" t="s">
         <v>13</v>
@@ -5047,13 +5298,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>13</v>
@@ -5067,13 +5318,13 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>13</v>
@@ -5085,15 +5336,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>166</v>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="193" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="164" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="164" t="s">
+        <v>381</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>13</v>
@@ -5105,15 +5356,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="164" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>13</v>
@@ -5125,15 +5376,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>13</v>
@@ -5147,13 +5398,13 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>119</v>
+        <v>242</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="164" t="s">
+        <v>241</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>13</v>
@@ -5167,13 +5418,13 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>13</v>
@@ -5187,13 +5438,13 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>13</v>
@@ -5207,13 +5458,13 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>13</v>
@@ -5227,13 +5478,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>13</v>
@@ -5245,15 +5496,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D14" s="92" t="s">
         <v>13</v>
@@ -5265,15 +5516,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>13</v>
@@ -5287,73 +5538,73 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>139</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>13</v>
@@ -5367,13 +5618,13 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D20" s="92" t="s">
         <v>13</v>
@@ -5387,13 +5638,13 @@
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D21" s="92" t="s">
         <v>13</v>
@@ -5405,15 +5656,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D22" s="92" t="s">
         <v>13</v>
@@ -5427,13 +5678,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D23" s="92" t="s">
         <v>13</v>
@@ -5447,314 +5698,400 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D27" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D28" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D29" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="32" t="s">
+      <c r="C30" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C31" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" s="32" t="s">
+      <c r="D31" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="D33" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="189" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="190" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="191" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="D35" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="189" t="s">
-        <v>359</v>
-      </c>
-      <c r="C32" s="190" t="s">
-        <v>360</v>
-      </c>
-      <c r="D32" s="191" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" s="32" t="s">
+      <c r="C36" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="D36" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="77"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="78"/>
+    </row>
+    <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="78"/>
-    </row>
-    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="98" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="76" t="s">
+      <c r="B40" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="92" t="s">
+      <c r="F40" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="193" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="164" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="92" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5780,7 +6117,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="95"/>
       <c r="D1" s="96"/>
@@ -5807,52 +6144,52 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="102"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="130" t="s">
         <v>13</v>
@@ -5882,7 +6219,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="129" t="s">
         <v>23</v>
@@ -5891,27 +6228,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F12" s="122" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="131" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="132" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="130" t="s">
         <v>26</v>
@@ -5920,13 +6257,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E13" s="89">
         <v>1</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G13" s="99">
         <v>1</v>
@@ -5940,27 +6277,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="89" t="s">
         <v>13</v>
@@ -6016,10 +6353,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H18" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -6050,7 +6387,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" s="129" t="s">
         <v>40</v>
@@ -6059,10 +6396,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="135" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="131" t="s">
         <v>42</v>
@@ -6077,18 +6414,18 @@
         <v>45</v>
       </c>
       <c r="J20" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K20" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L20" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="89" t="s">
         <v>13</v>
@@ -6126,7 +6463,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>40</v>
@@ -6138,17 +6475,17 @@
         <v>42</v>
       </c>
       <c r="E22" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="92" t="s">
         <v>13</v>
@@ -6188,7 +6525,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6211,7 +6548,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6234,7 +6571,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6316,7 +6653,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="120" t="s">
         <v>2</v>
@@ -6340,7 +6677,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="162" t="s">
         <v>13</v>
@@ -6364,34 +6701,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" s="117" t="s">
+      <c r="F34" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="I34" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="J34" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F34" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K34" s="117" t="s">
         <v>54</v>
@@ -6400,33 +6737,33 @@
         <v>55</v>
       </c>
       <c r="M34" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N34" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O34" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P34" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R34" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S34" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T34" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B35" s="112" t="s">
         <v>13</v>
@@ -6571,10 +6908,10 @@
         <v>35</v>
       </c>
       <c r="G42" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H42" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6605,7 +6942,7 @@
     </row>
     <row r="44" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A44" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>40</v>
@@ -6614,10 +6951,10 @@
         <v>41</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E44" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>42</v>
@@ -6632,18 +6969,18 @@
         <v>45</v>
       </c>
       <c r="J44" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K44" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L44" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>64</v>
@@ -6681,7 +7018,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>40</v>
@@ -6693,17 +7030,17 @@
         <v>42</v>
       </c>
       <c r="E46" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F46" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B47" s="92" t="s">
         <v>13</v>
@@ -6743,7 +7080,7 @@
         <v>49</v>
       </c>
       <c r="G48" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6766,7 +7103,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -6789,7 +7126,7 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6871,7 +7208,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B56" s="120" t="s">
         <v>2</v>
@@ -6895,7 +7232,7 @@
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="162" t="s">
         <v>13</v>
@@ -6919,34 +7256,34 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="120" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" s="120" t="s">
+      <c r="F58" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G58" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H58" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="120" t="s">
+      <c r="I58" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E58" s="121" t="s">
+      <c r="J58" s="120" t="s">
         <v>200</v>
-      </c>
-      <c r="F58" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="I58" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J58" s="120" t="s">
-        <v>203</v>
       </c>
       <c r="K58" s="122" t="s">
         <v>54</v>
@@ -6955,36 +7292,36 @@
         <v>55</v>
       </c>
       <c r="M58" s="122" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N58" s="122" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O58" s="122" t="s">
         <v>39</v>
       </c>
       <c r="P58" s="122" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q58" s="122" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R58" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S58" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T58" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B59" s="112" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C59" s="124" t="s">
         <v>13</v>
@@ -6993,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="126" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F59" s="89" t="s">
         <v>13</v>
@@ -7017,7 +7354,7 @@
         <v>13</v>
       </c>
       <c r="M59" s="125" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N59" s="125" t="s">
         <v>13</v>
@@ -7112,7 +7449,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
@@ -7139,61 +7476,61 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C5" s="102"/>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="146" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B7" s="145" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="146" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C9" s="102"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B10" s="112" t="s">
         <v>13</v>
@@ -7222,7 +7559,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="56" t="s">
         <v>23</v>
@@ -7231,27 +7568,27 @@
         <v>24</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B14" s="92" t="s">
         <v>27</v>
@@ -7260,19 +7597,19 @@
         <v>27</v>
       </c>
       <c r="D14" s="125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E14" s="89">
         <v>2</v>
       </c>
       <c r="F14" s="89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G14" s="89">
         <v>1</v>
       </c>
       <c r="H14" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I14" s="89" t="s">
         <v>37</v>
@@ -7280,36 +7617,36 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>37</v>
@@ -7355,10 +7692,10 @@
         <v>35</v>
       </c>
       <c r="G19" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H19" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7366,13 +7703,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>37</v>
@@ -7398,10 +7735,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>42</v>
@@ -7416,13 +7753,13 @@
         <v>45</v>
       </c>
       <c r="J21" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K21" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L21" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7465,7 +7802,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>40</v>
@@ -7477,17 +7814,17 @@
         <v>42</v>
       </c>
       <c r="E23" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F23" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" s="92" t="s">
         <v>13</v>
@@ -7527,7 +7864,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7538,7 +7875,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D26" s="89" t="s">
         <v>13</v>
@@ -7550,7 +7887,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7577,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D28" s="89" t="s">
         <v>13</v>
@@ -7593,7 +7930,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D29" s="89" t="s">
         <v>13</v>
@@ -7608,7 +7945,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D30" s="89" t="s">
         <v>13</v>
@@ -7623,7 +7960,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" s="140" t="s">
         <v>13</v>
@@ -7632,7 +7969,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="120" t="s">
         <v>2</v>
@@ -7656,7 +7993,7 @@
     </row>
     <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="162" t="s">
         <v>13</v>
@@ -7680,34 +8017,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C34" s="117" t="s">
+      <c r="F34" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="I34" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="J34" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F34" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K34" s="117" t="s">
         <v>54</v>
@@ -7716,33 +8053,33 @@
         <v>55</v>
       </c>
       <c r="M34" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N34" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O34" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P34" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R34" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S34" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T34" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B35" s="112" t="s">
         <v>13</v>
@@ -7872,7 +8209,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
@@ -7899,52 +8236,52 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C5" s="102"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="102"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="102"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="102"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="130" t="s">
         <v>13</v>
@@ -7973,7 +8310,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>23</v>
@@ -7982,27 +8319,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E12" s="142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F12" s="142" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>27</v>
@@ -8011,19 +8348,19 @@
         <v>27</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E13" s="143">
         <v>3</v>
       </c>
       <c r="F13" s="143" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G13" s="89">
         <v>1</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I13" s="89" t="s">
         <v>13</v>
@@ -8031,36 +8368,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D15" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E15" s="89" t="s">
         <v>13</v>
@@ -8071,36 +8408,36 @@
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D16" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>13</v>
@@ -8111,16 +8448,16 @@
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D18" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E18" s="89" t="s">
         <v>13</v>
@@ -8131,16 +8468,16 @@
     </row>
     <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E19" s="89" t="s">
         <v>13</v>
@@ -8151,16 +8488,16 @@
     </row>
     <row r="20" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>13</v>
@@ -8206,10 +8543,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H23" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8220,10 +8557,10 @@
         <v>36</v>
       </c>
       <c r="C24" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>13</v>
@@ -8240,7 +8577,7 @@
     </row>
     <row r="25" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B25" s="56" t="s">
         <v>40</v>
@@ -8249,10 +8586,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>42</v>
@@ -8267,18 +8604,18 @@
         <v>45</v>
       </c>
       <c r="J25" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K25" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L25" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="92" t="s">
         <v>13</v>
@@ -8316,7 +8653,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" s="56" t="s">
         <v>40</v>
@@ -8328,17 +8665,17 @@
         <v>42</v>
       </c>
       <c r="E27" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F27" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="92" t="s">
         <v>13</v>
@@ -8378,7 +8715,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8401,7 +8738,7 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -8483,7 +8820,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B36" s="120" t="s">
         <v>2</v>
@@ -8507,7 +8844,7 @@
     </row>
     <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B37" s="162" t="s">
         <v>13</v>
@@ -8531,34 +8868,34 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C38" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="117" t="s">
+      <c r="F38" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="I38" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="J38" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F38" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G38" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H38" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I38" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J38" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K38" s="117" t="s">
         <v>54</v>
@@ -8567,33 +8904,33 @@
         <v>55</v>
       </c>
       <c r="M38" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N38" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O38" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P38" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q38" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R38" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S38" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T38" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B39" s="112" t="s">
         <v>13</v>
@@ -8737,10 +9074,10 @@
         <v>35</v>
       </c>
       <c r="G46" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H46" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8771,7 +9108,7 @@
     </row>
     <row r="48" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>40</v>
@@ -8780,10 +9117,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E48" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>42</v>
@@ -8798,18 +9135,18 @@
         <v>45</v>
       </c>
       <c r="J48" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K48" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L48" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B49" s="92" t="s">
         <v>64</v>
@@ -8847,7 +9184,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>40</v>
@@ -8859,17 +9196,17 @@
         <v>42</v>
       </c>
       <c r="E50" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F50" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B51" s="92" t="s">
         <v>13</v>
@@ -8909,7 +9246,7 @@
         <v>49</v>
       </c>
       <c r="G52" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -8932,7 +9269,7 @@
         <v>0.5</v>
       </c>
       <c r="G53" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -9014,7 +9351,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" s="120" t="s">
         <v>2</v>
@@ -9038,7 +9375,7 @@
     </row>
     <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B60" s="162" t="s">
         <v>13</v>
@@ -9062,34 +9399,34 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="117" t="s">
+      <c r="F61" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G61" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H61" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D61" s="117" t="s">
+      <c r="I61" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="117" t="s">
+      <c r="J61" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F61" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H61" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I61" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J61" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K61" s="117" t="s">
         <v>54</v>
@@ -9098,33 +9435,33 @@
         <v>55</v>
       </c>
       <c r="M61" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N61" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O61" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P61" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q61" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R61" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S61" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T61" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B62" s="112" t="s">
         <v>13</v>
@@ -9257,7 +9594,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
@@ -9300,16 +9637,16 @@
     </row>
     <row r="4" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="146" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B4" s="145" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="84"/>
     </row>
     <row r="5" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>13</v>
@@ -9318,34 +9655,34 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="146" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="145" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C6" s="84"/>
     </row>
     <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="84"/>
     </row>
     <row r="8" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="146" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B8" s="145" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" s="84"/>
     </row>
     <row r="9" spans="1:21" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>13</v>
@@ -9375,7 +9712,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>23</v>
@@ -9384,27 +9721,27 @@
         <v>24</v>
       </c>
       <c r="D12" s="122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F12" s="122" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>27</v>
@@ -9413,13 +9750,13 @@
         <v>27</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E13" s="89">
         <v>3</v>
       </c>
       <c r="F13" s="125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G13" s="89">
         <v>1</v>
@@ -9433,33 +9770,33 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D15" s="89" t="s">
         <v>13</v>
@@ -9508,10 +9845,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H18" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9542,7 +9879,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>40</v>
@@ -9551,10 +9888,10 @@
         <v>41</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E20" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>42</v>
@@ -9569,21 +9906,21 @@
         <v>45</v>
       </c>
       <c r="J20" s="182" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K20" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L20" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="92" t="s">
         <v>13</v>
@@ -9592,16 +9929,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I21" s="92" t="s">
         <v>13</v>
@@ -9618,7 +9955,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>40</v>
@@ -9630,17 +9967,17 @@
         <v>42</v>
       </c>
       <c r="E22" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F22" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="92" t="s">
         <v>13</v>
@@ -9680,7 +10017,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -9703,7 +10040,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -9785,7 +10122,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B31" s="120" t="s">
         <v>2</v>
@@ -9809,7 +10146,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="162" t="s">
         <v>13</v>
@@ -9833,34 +10170,34 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="117" t="s">
+      <c r="F33" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="I33" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="J33" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F33" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G33" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H33" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J33" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K33" s="117" t="s">
         <v>54</v>
@@ -9869,33 +10206,33 @@
         <v>55</v>
       </c>
       <c r="M33" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N33" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O33" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P33" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q33" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R33" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S33" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T33" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B34" s="112" t="s">
         <v>13</v>
@@ -10039,10 +10376,10 @@
         <v>35</v>
       </c>
       <c r="G41" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H41" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -10073,7 +10410,7 @@
     </row>
     <row r="43" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>40</v>
@@ -10082,10 +10419,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E43" s="122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>42</v>
@@ -10100,18 +10437,18 @@
         <v>45</v>
       </c>
       <c r="J43" s="182" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K43" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L43" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B44" s="92" t="s">
         <v>64</v>
@@ -10149,7 +10486,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>40</v>
@@ -10161,17 +10498,17 @@
         <v>42</v>
       </c>
       <c r="E45" s="182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F45" s="182" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="92" t="s">
         <v>13</v>
@@ -10211,7 +10548,7 @@
         <v>49</v>
       </c>
       <c r="G47" s="137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" x14ac:dyDescent="0.25">
@@ -10234,7 +10571,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -10316,7 +10653,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="113" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B54" s="120" t="s">
         <v>2</v>
@@ -10340,7 +10677,7 @@
     </row>
     <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="161" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B55" s="162" t="s">
         <v>13</v>
@@ -10364,34 +10701,34 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" s="117" t="s">
+      <c r="F56" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="G56" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="D56" s="117" t="s">
+      <c r="I56" s="117" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="117" t="s">
+      <c r="J56" s="117" t="s">
         <v>200</v>
-      </c>
-      <c r="F56" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="G56" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="H56" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I56" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J56" s="117" t="s">
-        <v>203</v>
       </c>
       <c r="K56" s="117" t="s">
         <v>54</v>
@@ -10400,33 +10737,33 @@
         <v>55</v>
       </c>
       <c r="M56" s="117" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N56" s="117" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O56" s="117" t="s">
         <v>39</v>
       </c>
       <c r="P56" s="117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q56" s="117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R56" s="117" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S56" s="117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T56" s="119" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="118" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B57" s="112" t="s">
         <v>13</v>
